--- a/xlsx/S属性-attr.xlsx
+++ b/xlsx/S属性-attr.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\ptolemaios\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\ptolemaios\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA7B835-3191-4056-8DD3-511A56484D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321AC86-3B10-48F3-A1E4-F8BF0BA82D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性-attr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,17 +408,32 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -424,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -438,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -452,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
